--- a/outputs-r202/g__Saccharofermentans.xlsx
+++ b/outputs-r202/g__Saccharofermentans.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -585,6 +590,11 @@
           <t>s__Saccharofermentans sp003149065</t>
         </is>
       </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>s__Saccharofermentans sp003149065(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -645,6 +655,11 @@
           <t>s__Saccharofermentans sp003149065</t>
         </is>
       </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>s__Saccharofermentans sp003149065</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -703,6 +718,11 @@
       <c r="R4" t="inlineStr">
         <is>
           <t>s__Saccharofermentans sp900099715</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>s__Saccharofermentans sp900099715(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/g__Saccharofermentans.xlsx
+++ b/outputs-r202/g__Saccharofermentans.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,56 +534,56 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG428.fasta</t>
+          <t>RUG662.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05766136606123742</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1116609677851007</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05766136606123741</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05766136606123742</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05766136606123742</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05766136606123742</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1387412734188131</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05766136606123741</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05766136606123748</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05766136606123741</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05766136606123741</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05766136606123741</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05766136606123741</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05766136606123741</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05766136606123741</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1387412734188131</v>
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -592,137 +592,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>s__Saccharofermentans sp003149065(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>RUG662.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
           <t>s__Saccharofermentans sp003149065</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>s__Saccharofermentans sp003149065</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG747.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2.23897174289595e-14</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.23897174289595e-14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.23897174289595e-14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.23897174289595e-14</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.23897174289595e-14</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.23897174289595e-14</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.23897174289595e-14</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01722064002681411</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.01722064002681411</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.4827793599730628</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.23897174289595e-14</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.23897174289595e-14</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.4827793599730628</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.23897174289595e-14</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.23897174289595e-14</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.4827793599730628</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>s__Saccharofermentans sp900099715</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>s__Saccharofermentans sp900099715(reject)</t>
         </is>
       </c>
     </row>
